--- a/doc/2.xlsx
+++ b/doc/2.xlsx
@@ -9,43 +9,71 @@
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
+    <sheet name="Лаб 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лаб 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Лист1!$B$15,Лист1!$C$15</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Лаб 3'!#REF!,'Лаб 3'!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Лаб 4'!$B$7,'Лаб 4'!$C$7</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Лист1!$D$15</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Лаб 3'!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Лаб 4'!$A$7</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">2.28</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0.000289</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>значения:</t>
   </si>
@@ -146,13 +174,13 @@
     <t>Средний y</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Массив</t>
   </si>
   <si>
-    <t>b</t>
+    <t>Макс:</t>
   </si>
   <si>
-    <t>fun</t>
+    <t>Сумма</t>
   </si>
 </sst>
 </file>
@@ -215,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -262,12 +290,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -516,11 +553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1190963760"/>
-        <c:axId val="1190966480"/>
+        <c:axId val="1821741088"/>
+        <c:axId val="1821726400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1190963760"/>
+        <c:axId val="1821741088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,7 +600,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1190966480"/>
+        <c:crossAx val="1821726400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -571,7 +608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1190966480"/>
+        <c:axId val="1821726400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5000000000000015E-4"/>
@@ -637,7 +674,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1190963760"/>
+        <c:crossAx val="1821741088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -956,11 +993,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1155057024"/>
-        <c:axId val="1166140960"/>
+        <c:axId val="1821729664"/>
+        <c:axId val="1821734016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1155057024"/>
+        <c:axId val="1821729664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,7 +1040,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1166140960"/>
+        <c:crossAx val="1821734016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1011,7 +1048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1166140960"/>
+        <c:axId val="1821734016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5000000000000014E-3"/>
@@ -1077,7 +1114,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1155057024"/>
+        <c:crossAx val="1821729664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1330,11 +1367,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1166133888"/>
-        <c:axId val="1166139872"/>
+        <c:axId val="1821735104"/>
+        <c:axId val="1821726944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1166133888"/>
+        <c:axId val="1821735104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1414,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1166139872"/>
+        <c:crossAx val="1821726944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1385,7 +1422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1166139872"/>
+        <c:axId val="1821726944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1473,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1166133888"/>
+        <c:crossAx val="1821735104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1490,6 +1527,966 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Лаб 3'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Лаб 3'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.9444444444444444E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9675925925925926E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0416666666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6296296296296294E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1574074074074073E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2013270112"/>
+        <c:axId val="2013263040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2013270112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2013263040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2013263040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2013270112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Лаб 3'!$J$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Лаб 3'!$J$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2013258688"/>
+        <c:axId val="2013270656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2013258688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2013270656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2013270656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2013258688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Лаб 4'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Лаб 4'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.6296296296296294E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222222E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5046296296296297E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3148148148148147E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4722222222222222E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Лаб 4'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Лаб 4'!$B$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.5557462891609785E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1111307393855496E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6666868498550015E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2222429603244533E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7777990707939047E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2013801536"/>
+        <c:axId val="2013799360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2013801536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2013799360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2013799360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2013801536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1644,6 +2641,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3173,6 +4290,1554 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3212,7 +5877,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB455C6B-6073-4F4A-BBE2-0075731662C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB455C6B-6073-4F4A-BBE2-0075731662C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3248,7 +5913,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2715CBF1-ABB0-447F-8FE9-B6F407F42F81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2715CBF1-ABB0-447F-8FE9-B6F407F42F81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3291,10 +5956,110 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10DA0F8A-CA91-4F21-A65B-51E06AF979F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10DA0F8A-CA91-4F21-A65B-51E06AF979F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3611,13 +6376,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -3700,7 +6465,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3775,502 +6540,616 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q35"/>
+  <dimension ref="A2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="B2" s="9">
+        <v>100</v>
+      </c>
       <c r="C2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F2" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="15">
+        <f>SUM(B2:F2)</f>
+        <v>18100</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="9">
         <v>100</v>
       </c>
-      <c r="D2" s="9">
+      <c r="K2" s="9">
         <v>1000</v>
       </c>
-      <c r="E2" s="9">
+      <c r="L2" s="9">
         <v>2000</v>
       </c>
-      <c r="F2" s="9">
+      <c r="M2" s="9">
         <v>5000</v>
       </c>
-      <c r="G2" s="9">
+      <c r="N2" s="9">
         <v>10000</v>
       </c>
-      <c r="H2" s="15">
-        <f>SUM(C2:G2)</f>
+      <c r="O2" s="15">
+        <f>SUM(J2:N2)</f>
         <v>18100</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="B3" s="11">
+        <v>6.9444444444444444E-5</v>
+      </c>
       <c r="C3" s="11">
-        <v>6.9444444444444444E-5</v>
+        <v>1.9675925925925926E-4</v>
       </c>
       <c r="D3" s="11">
-        <v>1.9675925925925926E-4</v>
+        <v>1.0416666666666667E-4</v>
       </c>
       <c r="E3" s="11">
-        <v>1.0416666666666667E-4</v>
+        <v>4.6296296296296294E-5</v>
       </c>
       <c r="F3" s="11">
-        <v>4.6296296296296294E-5</v>
-      </c>
-      <c r="G3" s="11">
         <v>1.1574074074074073E-4</v>
       </c>
-      <c r="H3" s="20">
-        <f>SUM(C3:G3)</f>
+      <c r="G3" s="18">
+        <f>SUM(B3:F3)</f>
         <v>5.3240740740740744E-4</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1.5046296296296297E-4</v>
+      </c>
+      <c r="K3" s="11">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="L3" s="11">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="M3" s="11">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="N3" s="11">
+        <v>1.3888888888888889E-4</v>
+      </c>
+      <c r="O3" s="16">
+        <f>SUM(J3:N3)</f>
+        <v>6.3657407407407413E-4</v>
+      </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>14</v>
+      </c>
+      <c r="B4" s="17">
+        <f>POWER(B2,2)</f>
+        <v>10000</v>
       </c>
       <c r="C4" s="17">
         <f>POWER(C2,2)</f>
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="D4" s="17">
         <f>POWER(D2,2)</f>
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
       <c r="E4" s="17">
         <f>POWER(E2,2)</f>
-        <v>4000000</v>
+        <v>25000000</v>
       </c>
       <c r="F4" s="17">
         <f>POWER(F2,2)</f>
+        <v>100000000</v>
+      </c>
+      <c r="G4" s="18">
+        <f>SUM(B4:F4)</f>
+        <v>130010000</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="17">
+        <f>POWER(J2,2)</f>
+        <v>10000</v>
+      </c>
+      <c r="K4" s="17">
+        <f>POWER(K2,2)</f>
+        <v>1000000</v>
+      </c>
+      <c r="L4" s="17">
+        <f>POWER(L2,2)</f>
+        <v>4000000</v>
+      </c>
+      <c r="M4" s="17">
+        <f>POWER(M2,2)</f>
         <v>25000000</v>
       </c>
-      <c r="G4" s="17">
-        <f>POWER(G2,2)</f>
+      <c r="N4" s="17">
+        <f>POWER(N2,2)</f>
         <v>100000000</v>
       </c>
-      <c r="H4" s="18">
-        <f>SUM(C4:G4)</f>
+      <c r="O4" s="18">
+        <f>SUM(J4:N4)</f>
         <v>130010000</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="B5" s="14">
+        <f>B2*J3</f>
+        <v>1.5046296296296297E-2</v>
+      </c>
       <c r="C5" s="14">
-        <f>C2*C9</f>
+        <f>C2*K3</f>
+        <v>5.7870370370370364E-2</v>
+      </c>
+      <c r="D5" s="14">
+        <f>D2*L3</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E5" s="14">
+        <f>E2*M3</f>
+        <v>0.40509259259259256</v>
+      </c>
+      <c r="F5" s="14">
+        <f>F2*N3</f>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="G5" s="18">
+        <f>SUM(B5:F5)</f>
+        <v>2.2835648148148149</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="19">
+        <f>J2*J3</f>
         <v>1.5046296296296297E-2</v>
       </c>
-      <c r="D5" s="14">
-        <f>D2*D9</f>
+      <c r="K5" s="19">
+        <f t="shared" ref="K5:N5" si="0">K2*K3</f>
         <v>5.7870370370370364E-2</v>
       </c>
-      <c r="E5" s="14">
-        <f>E2*E9</f>
+      <c r="L5" s="19">
+        <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="F5" s="14">
-        <f>F2*F9</f>
+      <c r="M5" s="19">
+        <f t="shared" si="0"/>
         <v>0.40509259259259256</v>
       </c>
-      <c r="G5" s="14">
-        <f>G2*G9</f>
+      <c r="N5" s="19">
+        <f t="shared" si="0"/>
         <v>1.3888888888888888</v>
       </c>
-      <c r="H5" s="20">
-        <f t="shared" ref="H5" si="0">SUM(C5:G5)</f>
+      <c r="O5" s="19">
+        <f>SUM(J5:N5)</f>
         <v>2.2835648148148149</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9">
-        <v>100</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G8" s="9">
-        <v>10000</v>
-      </c>
-      <c r="H8" s="15">
-        <f>SUM(C8:G8)</f>
-        <v>18100</v>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <f>G5*$B$8+$C$8*G3</f>
+        <v>1.1999095115096694E-13</v>
+      </c>
+      <c r="B8" s="26">
+        <v>5.254545453341887E-14</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26">
+        <f>O5*$J$8+$K$8*O3</f>
+        <v>1.1999095115096694E-13</v>
+      </c>
+      <c r="J8" s="26">
+        <v>5.254545453341887E-14</v>
+      </c>
+      <c r="K8" s="26">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1.5046296296296297E-4</v>
-      </c>
-      <c r="D9" s="11">
-        <v>5.7870370370370366E-5</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="F9" s="11">
-        <v>8.1018518518518516E-5</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1.3888888888888889E-4</v>
-      </c>
-      <c r="H9" s="16">
-        <f>SUM(C9:G9)</f>
-        <v>6.3657407407407413E-4</v>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <f>$B$9*G3+5*$C$9</f>
+        <v>3.8837442167483713E-8</v>
+      </c>
+      <c r="B9" s="26">
+        <v>5.5555611046945179E-5</v>
+      </c>
+      <c r="C9" s="26">
+        <v>1.8518446646090613E-9</v>
+      </c>
+      <c r="I9" s="26">
+        <f>$J$9*O3+5*$K$9</f>
+        <v>4.462448498487384E-8</v>
+      </c>
+      <c r="J9" s="26">
+        <v>5.5555611046945179E-5</v>
+      </c>
+      <c r="K9" s="26">
+        <v>1.8518446646090613E-9</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="17">
-        <f>POWER(C8,2)</f>
-        <v>10000</v>
-      </c>
-      <c r="D10" s="17">
-        <f>POWER(D8,2)</f>
-        <v>1000000</v>
-      </c>
-      <c r="E10" s="17">
-        <f>POWER(E8,2)</f>
-        <v>4000000</v>
-      </c>
-      <c r="F10" s="17">
-        <f>POWER(F8,2)</f>
-        <v>25000000</v>
-      </c>
-      <c r="G10" s="17">
-        <f>POWER(G8,2)</f>
-        <v>100000000</v>
-      </c>
-      <c r="H10" s="18">
-        <f>SUM(C10:G10)</f>
-        <v>130010000</v>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>$B$8*B12+$C$8</f>
+        <v>5.254545453341887E-14</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:F11" si="1">$B$8*C12+$C$8</f>
+        <v>1.0509090906683774E-13</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1.5763636360025661E-13</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>2.1018181813367548E-13</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2.6272727266709437E-13</v>
+      </c>
+      <c r="J11">
+        <f>$A$8*J12+$B$8</f>
+        <v>1.7253640568438581E-13</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:N11" si="2">$A$8*K12+$B$8</f>
+        <v>2.9252735683535272E-13</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>4.1251830798631973E-13</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>5.3250925913728665E-13</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>6.5250021028825356E-13</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="19">
-        <f>C8*C9</f>
-        <v>1.5046296296296297E-2</v>
-      </c>
-      <c r="D11" s="19">
-        <f t="shared" ref="D11:G11" si="1">D8*D9</f>
-        <v>5.7870370370370364E-2</v>
-      </c>
-      <c r="E11" s="19">
-        <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F11" s="19">
-        <f t="shared" si="1"/>
-        <v>0.40509259259259256</v>
-      </c>
-      <c r="G11" s="19">
-        <f t="shared" si="1"/>
-        <v>1.3888888888888888</v>
-      </c>
-      <c r="H11" s="19">
-        <f>SUM(C11:G11)</f>
-        <v>2.2835648148148149</v>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>21</v>
-      </c>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
-        <v>1.753711218989714E-8</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2.4415178112232768E-12</v>
-      </c>
-      <c r="D15" s="12">
-        <f>B15*$H$4+$H$2*C15</f>
-        <v>2.2799999999999994</v>
-      </c>
-      <c r="O15">
-        <v>-10</v>
-      </c>
-      <c r="P15">
-        <v>-10</v>
-      </c>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="O16">
-        <v>-9</v>
-      </c>
-      <c r="P16">
-        <v>-9</v>
-      </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="O17">
-        <v>-8</v>
-      </c>
-      <c r="P17">
-        <v>-8</v>
-      </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="O18">
-        <v>-7</v>
-      </c>
-      <c r="P18">
-        <v>-7</v>
-      </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="O19">
-        <v>-6</v>
-      </c>
-      <c r="P19">
-        <v>-6</v>
-      </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="O20">
-        <v>-5</v>
-      </c>
-      <c r="P20">
-        <v>-5</v>
-      </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="O21">
-        <v>-4</v>
-      </c>
-      <c r="P21">
-        <v>-4</v>
-      </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="O22">
-        <v>-3</v>
-      </c>
-      <c r="P22">
-        <v>-3</v>
-      </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="O23">
-        <v>-2</v>
-      </c>
-      <c r="P23">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="O24">
-        <v>-1</v>
-      </c>
-      <c r="P24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="O27">
-        <v>2</v>
-      </c>
-      <c r="P27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="O28">
-        <v>3</v>
-      </c>
-      <c r="P28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="O29">
-        <v>4</v>
-      </c>
-      <c r="P29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="O30">
-        <v>5</v>
-      </c>
-      <c r="P30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="O31">
-        <v>6</v>
-      </c>
-      <c r="P31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="O32">
-        <v>7</v>
-      </c>
-      <c r="P32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="O33">
-        <v>8</v>
-      </c>
-      <c r="P33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="O34">
-        <v>9</v>
-      </c>
-      <c r="P34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="O35">
-        <v>10</v>
-      </c>
-      <c r="P35">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D2" s="9">
+        <v>30000</v>
+      </c>
+      <c r="E2" s="9">
+        <v>40000</v>
+      </c>
+      <c r="F2" s="9">
+        <v>50000</v>
+      </c>
+      <c r="G2" s="22">
+        <f>SUM(B2:F2)</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="23">
+        <v>4.6296296296296294E-5</v>
+      </c>
+      <c r="C3" s="23">
+        <v>3.4722222222222222E-5</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1.5046296296296297E-4</v>
+      </c>
+      <c r="E3" s="23">
+        <v>2.3148148148148147E-5</v>
+      </c>
+      <c r="F3" s="23">
+        <v>3.4722222222222222E-5</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" ref="G3:G5" si="0">SUM(B3:F3)</f>
+        <v>2.8935185185185189E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9">
+        <f>B2*B2</f>
+        <v>100000000</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" ref="C4:F4" si="1">C2*C2</f>
+        <v>400000000</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="1"/>
+        <v>900000000</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="1"/>
+        <v>2500000000</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="0"/>
+        <v>5500000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="25">
+        <f>B2*B3</f>
+        <v>0.46296296296296297</v>
+      </c>
+      <c r="C5" s="25">
+        <f t="shared" ref="C5:F5" si="2">C2*C3</f>
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" si="2"/>
+        <v>4.5138888888888893</v>
+      </c>
+      <c r="E5" s="25">
+        <f t="shared" si="2"/>
+        <v>0.92592592592592593</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" si="2"/>
+        <v>1.7361111111111112</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <f>G4*$B$7+$C$7*G2</f>
+        <v>2.889999999338038E-4</v>
+      </c>
+      <c r="B7" s="26">
+        <v>5.254545453341887E-14</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <f>$B$8*G2+5*$C$8</f>
+        <v>8.3333416663009992</v>
+      </c>
+      <c r="B8" s="26">
+        <v>5.5555611046945179E-5</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1.8518446646090613E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>$B$8*B11+$C$8</f>
+        <v>5.5557462891609785E-5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:F10" si="3">$B$8*C11+$C$8</f>
+        <v>1.1111307393855496E-4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>1.6666868498550015E-4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>2.2222429603244533E-4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>2.7777990707939047E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>